--- a/query analysis/Query results for XSS.xlsx
+++ b/query analysis/Query results for XSS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
   <si>
     <t xml:space="preserve">BM25s results</t>
   </si>
@@ -67,9 +67,18 @@
     <t xml:space="preserve">HyDE from Gemini for query “XSS”</t>
   </si>
   <si>
+    <t xml:space="preserve">HyDE from Llama for query “all XSS vulnerabilities”</t>
+  </si>
+  <si>
     <t xml:space="preserve">XSS, or Cross-Site Scripting, is a web security vulnerability that allows attackers to inject malicious client-side scripts into web pages viewed by other users. These scripts can then steal user data, hijack sessions, or deface websites by executing within the victim's browser.</t>
   </si>
   <si>
+    <t xml:space="preserve">Cross-Site Scripting (XSS) vulnerabilities occur when an attacker injects malicious code into a website, which is then executed by other users' browsers. There are three types of XSS vulnerabilities: Stored XSS (also known as Persistent XSS), Reflected XSS, and DOM-based XSS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemini – 11 hits – 9 relevant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vector Distance</t>
   </si>
   <si>
@@ -119,6 +128,102 @@
   </si>
   <si>
     <t xml:space="preserve">SR-102-001 Reflected Cross-Site Scripting (XSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama  – 27 hits – 9 relevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sr-103-016 sql server configured to run in mixed mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sr-103-002 oracle tns listener poisoning attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sr-103-011 sql server running as local system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sr-103-012 c2 audit was not configured (via sp_configure).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ncc-1604_moss_phpmyadmin-008 self xss in table_row_action.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ncc-1604_moss_phpmyadmin-005 vulnerability sensitive values vulnerable to session fixation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ncc-1604_moss_phpmyadmin-009 ability to unset arbitrary server global variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nccgrpphp-007 php api calls without side effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nccgrpphp-008 unreachable code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nccgrpphp-002 hard-coded trivial credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nccgrpphp-006 hard-coded static secrets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nccgrpphp-004 todo comments indicate incomplete code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nccgrpphp-011 hard-coded urls and cloud bucket names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt-rcms-003 stored xss in the title of the add new page (medium)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt-rcms-002 stored xss in the alt text in the image upload (medium)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt-rcms-001 stored xss in the title text in the image upload (medium)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ncc-samplewapt-007 finding design pattern creates risk of server-side request forgery (ssrf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ncc-samplewapt-002 users can become other users via manipulated jwt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sr-101-003 reflected cross-site scripting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sr-101-013 directory listings were enabled for the site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isec-wmf1214-8 reflected xss in api.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isec-wmf1214-14 stored xss in pdf files </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isec-wmf1214-11 stored xss in uploaded svg files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isec-wmf1214-7 users can inspect each other's personal javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isec-wmf1214-6 check user page lacks cross site request forgery (csrf) protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sr-102-001 reflected cross-site scripting (xss)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sr-102-009 hard-coded credentials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama  – bm25s sorted by score</t>
   </si>
 </sst>
 </file>
@@ -133,6 +238,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -192,16 +298,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,315 +442,847 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F73" activeCellId="0" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="115.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="115.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="63.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="n">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4" t="n">
         <v>0.389871776103973</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>0.405798852443695</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>0.414772212505341</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>0.450511276721954</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>0.495845973491669</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>0.499034464359283</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>0.517503976821899</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>0.565147399902344</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>0.580743432044983</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4" t="n">
+        <v>0.634622633457184</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>0.676891803741455</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>0.405798852443695</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2" t="n">
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>0.384325802326202</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="4" t="n">
         <v>0.57</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>0.414772212505341</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>0.450511276721954</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>0.495845973491669</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="D46" s="4" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>0.258466958999634</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="4" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="4" t="n">
+        <v>0.284174799919128</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>0.499034464359283</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>0.517503976821899</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>0.565147399902344</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>0.580743432044983</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>0.634622633457184</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>0.676891803741455</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="2"/>
+      <c r="D51" s="4" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="4" t="n">
+        <v>0.302828967571259</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="4" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="4" t="n">
+        <v>0.224313855171204</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="4" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="4" t="n">
+        <v>0.266833126544952</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="4" t="n">
+        <v>0.276750385761261</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>0.34324324131012</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="4" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="4" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="4" t="n">
+        <v>0.348534345626831</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="4" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="4" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="4" t="n">
+        <v>0.348534345626831</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="4" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="4" t="n">
+        <v>0.384325802326202</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="4" t="n">
+        <v>0.266833126544952</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="4" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="4" t="n">
+        <v>0.276750385761261</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="4" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="4" t="n">
+        <v>0.34324324131012</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="4" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="4" t="n">
+        <v>0.224313855171204</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="4" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="4" t="n">
+        <v>0.258466958999634</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="4" t="n">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="4" t="n">
+        <v>0.284174799919128</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="4" t="n">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="4" t="n">
+        <v>0.302828967571259</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="4" t="n">
+        <v>0.69</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B18:G18"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
